--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H2">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I2">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J2">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N2">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q2">
-        <v>18.73051064215</v>
+        <v>87.96912327448022</v>
       </c>
       <c r="R2">
-        <v>168.57459577935</v>
+        <v>791.722109470322</v>
       </c>
       <c r="S2">
-        <v>0.03127120004274712</v>
+        <v>0.08504694178693632</v>
       </c>
       <c r="T2">
-        <v>0.03127120004274713</v>
+        <v>0.08504694178693634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H3">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I3">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J3">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N3">
         <v>131.049072</v>
       </c>
       <c r="O3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q3">
-        <v>24.30305040240001</v>
+        <v>75.553473943024</v>
       </c>
       <c r="R3">
-        <v>218.7274536216</v>
+        <v>679.981265487216</v>
       </c>
       <c r="S3">
-        <v>0.04057473740583406</v>
+        <v>0.07304371876236752</v>
       </c>
       <c r="T3">
-        <v>0.04057473740583406</v>
+        <v>0.07304371876236754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H4">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I4">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J4">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N4">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q4">
-        <v>19.05301449745</v>
+        <v>63.37820627791123</v>
       </c>
       <c r="R4">
-        <v>171.47713047705</v>
+        <v>570.4038565012011</v>
       </c>
       <c r="S4">
-        <v>0.03180963077570048</v>
+        <v>0.06127289234268894</v>
       </c>
       <c r="T4">
-        <v>0.03180963077570048</v>
+        <v>0.06127289234268895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H5">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I5">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J5">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N5">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q5">
-        <v>9.823781836950001</v>
+        <v>29.24673778816389</v>
       </c>
       <c r="R5">
-        <v>88.41403653255</v>
+        <v>263.220640093475</v>
       </c>
       <c r="S5">
-        <v>0.01640112503437369</v>
+        <v>0.02827521195552648</v>
       </c>
       <c r="T5">
-        <v>0.01640112503437369</v>
+        <v>0.02827521195552648</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.835809</v>
       </c>
       <c r="I6">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J6">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N6">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O6">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P6">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q6">
-        <v>54.26869892328256</v>
+        <v>81.98537838529623</v>
       </c>
       <c r="R6">
-        <v>488.418290309543</v>
+        <v>737.868405467666</v>
       </c>
       <c r="S6">
-        <v>0.0906033675489152</v>
+        <v>0.07926196651020828</v>
       </c>
       <c r="T6">
-        <v>0.09060336754891522</v>
+        <v>0.0792619665102083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.835809</v>
       </c>
       <c r="I7">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J7">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N7">
         <v>131.049072</v>
       </c>
       <c r="O7">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P7">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q7">
-        <v>70.41425353547201</v>
+        <v>70.414253535472</v>
       </c>
       <c r="R7">
-        <v>633.7282818192482</v>
+        <v>633.728281819248</v>
       </c>
       <c r="S7">
-        <v>0.1175588989663395</v>
+        <v>0.06807521433078925</v>
       </c>
       <c r="T7">
-        <v>0.1175588989663395</v>
+        <v>0.06807521433078927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.835809</v>
       </c>
       <c r="I8">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J8">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N8">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O8">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P8">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q8">
-        <v>55.20310295311656</v>
+        <v>59.06715935843923</v>
       </c>
       <c r="R8">
-        <v>496.827926578049</v>
+        <v>531.604434225953</v>
       </c>
       <c r="S8">
-        <v>0.09216338563362954</v>
+        <v>0.0571050509143153</v>
       </c>
       <c r="T8">
-        <v>0.09216338563362954</v>
+        <v>0.05710505091431531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.835809</v>
       </c>
       <c r="I9">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J9">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N9">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O9">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P9">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q9">
-        <v>28.46285768620434</v>
+        <v>27.25734638296389</v>
       </c>
       <c r="R9">
-        <v>256.165719175839</v>
+        <v>245.316117446675</v>
       </c>
       <c r="S9">
-        <v>0.04751967170027838</v>
+        <v>0.02635190467756753</v>
       </c>
       <c r="T9">
-        <v>0.04751967170027838</v>
+        <v>0.02635190467756753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H10">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I10">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J10">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N10">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O10">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P10">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q10">
-        <v>70.24215875027933</v>
+        <v>139.5460156019329</v>
       </c>
       <c r="R10">
-        <v>632.179428752514</v>
+        <v>1255.914140417396</v>
       </c>
       <c r="S10">
-        <v>0.1172715810946119</v>
+        <v>0.1349105393316951</v>
       </c>
       <c r="T10">
-        <v>0.1172715810946119</v>
+        <v>0.1349105393316951</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H11">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I11">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J11">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N11">
         <v>131.049072</v>
       </c>
       <c r="O11">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P11">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q11">
-        <v>91.13999917545601</v>
+        <v>119.850987041632</v>
       </c>
       <c r="R11">
-        <v>820.2599925791042</v>
+        <v>1078.658883374688</v>
       </c>
       <c r="S11">
-        <v>0.1521612090862007</v>
+        <v>0.1158697454132012</v>
       </c>
       <c r="T11">
-        <v>0.1521612090862007</v>
+        <v>0.1158697454132012</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H12">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I12">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J12">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N12">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O12">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P12">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q12">
-        <v>71.45159545141134</v>
+        <v>100.5372775454909</v>
       </c>
       <c r="R12">
-        <v>643.064359062702</v>
+        <v>904.8354979094181</v>
       </c>
       <c r="S12">
-        <v>0.1192907752181843</v>
+        <v>0.09719760380184314</v>
       </c>
       <c r="T12">
-        <v>0.1192907752181843</v>
+        <v>0.09719760380184313</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H13">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I13">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J13">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N13">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O13">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P13">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q13">
-        <v>36.840620979458</v>
+        <v>46.39429808750556</v>
       </c>
       <c r="R13">
-        <v>331.565588815122</v>
+        <v>417.54868278755</v>
       </c>
       <c r="S13">
-        <v>0.06150662148821259</v>
+        <v>0.04485316008416444</v>
       </c>
       <c r="T13">
-        <v>0.06150662148821259</v>
+        <v>0.04485316008416444</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H14">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I14">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J14">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N14">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O14">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P14">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q14">
-        <v>12.77251257467856</v>
+        <v>45.73111752958111</v>
       </c>
       <c r="R14">
-        <v>114.952613172107</v>
+        <v>411.58005776623</v>
       </c>
       <c r="S14">
-        <v>0.02132412743048576</v>
+        <v>0.04421200923254067</v>
       </c>
       <c r="T14">
-        <v>0.02132412743048576</v>
+        <v>0.04421200923254068</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H15">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I15">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J15">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N15">
         <v>131.049072</v>
       </c>
       <c r="O15">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P15">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q15">
-        <v>16.57248020612801</v>
+        <v>39.27679017416</v>
       </c>
       <c r="R15">
-        <v>149.152321855152</v>
+        <v>353.49111156744</v>
       </c>
       <c r="S15">
-        <v>0.02766829765783733</v>
+        <v>0.03797208342178099</v>
       </c>
       <c r="T15">
-        <v>0.02766829765783732</v>
+        <v>0.037972083421781</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H16">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I16">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J16">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N16">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O16">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P16">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q16">
-        <v>12.99243100754456</v>
+        <v>32.94742623574611</v>
       </c>
       <c r="R16">
-        <v>116.931879067901</v>
+        <v>296.526836121715</v>
       </c>
       <c r="S16">
-        <v>0.02169128844593423</v>
+        <v>0.03185296996035607</v>
       </c>
       <c r="T16">
-        <v>0.02169128844593423</v>
+        <v>0.03185296996035607</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H17">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I17">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J17">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N17">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O17">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P17">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q17">
-        <v>6.698929860512334</v>
+        <v>15.20403925106945</v>
       </c>
       <c r="R17">
-        <v>60.290368744611</v>
+        <v>136.836353259625</v>
       </c>
       <c r="S17">
-        <v>0.01118408247071515</v>
+        <v>0.01469898747401877</v>
       </c>
       <c r="T17">
-        <v>0.01118408247071515</v>
+        <v>0.01469898747401878</v>
       </c>
     </row>
   </sheetData>
